--- a/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
@@ -741,12 +741,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145850</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142892</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>289061</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1438,12 +1438,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>109193</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>190363</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2222,12 +2222,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>170640</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>178509</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>349475</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>99,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2335,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2350,12 +2350,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2370,12 +2370,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2420,12 +2420,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2600,12 +2600,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2635,12 +2635,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2650,12 +2650,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2678,12 +2678,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>76629</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2693,12 +2693,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2713,12 +2713,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>132590</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>209550</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2763,12 +2763,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2806,12 +2806,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2826,12 +2826,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2841,12 +2841,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2876,12 +2876,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>45540</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3036,12 +3036,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>118535</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3071,12 +3071,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>164398</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3106,12 +3106,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3184,12 +3184,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3204,12 +3204,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3219,12 +3219,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3262,12 +3262,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4175,12 +4175,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4288,12 +4288,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4338,12 +4338,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>364923</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4416,12 +4416,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>297643</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>664089</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4794,12 +4794,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>322190</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>258814</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>582587</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5102,12 +5102,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5613,12 +5613,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>534330</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>635383</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1171534</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5804,12 +5804,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>210479</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>424895</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6182,12 +6182,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>637013</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>162718</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6470,12 +6470,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>489842</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6505,12 +6505,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6525,12 +6525,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>656326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7609,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -7644,12 +7644,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -7659,12 +7659,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -7694,12 +7694,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7722,12 +7722,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7737,12 +7737,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7757,12 +7757,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7772,12 +7772,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7792,12 +7792,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -7807,12 +7807,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7835,12 +7835,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>294428</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7850,12 +7850,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7870,12 +7870,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276285</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>277416</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7885,12 +7885,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -7905,12 +7905,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>571824</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572938</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7920,12 +7920,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -8100,12 +8100,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8115,12 +8115,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8178,12 +8178,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8193,12 +8193,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8213,12 +8213,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8248,12 +8248,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8263,12 +8263,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>194692</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8306,12 +8306,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -8326,12 +8326,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>230852</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -8341,12 +8341,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -8361,12 +8361,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>426643</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8521,12 +8521,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -8536,12 +8536,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -8556,12 +8556,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -8571,12 +8571,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -8591,12 +8591,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -8606,12 +8606,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8977,12 +8977,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8992,12 +8992,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9012,12 +9012,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9027,12 +9027,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9047,12 +9047,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9062,12 +9062,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9090,12 +9090,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>307412</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9105,12 +9105,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -9125,12 +9125,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>315287</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -9160,12 +9160,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>623755</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9175,12 +9175,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9203,12 +9203,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -9218,12 +9218,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -9238,12 +9238,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -9253,12 +9253,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -9273,12 +9273,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -9288,12 +9288,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -9448,12 +9448,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -9468,12 +9468,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -9483,12 +9483,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -9503,12 +9503,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -9518,12 +9518,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9546,12 +9546,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>149788</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -9561,12 +9561,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -9581,12 +9581,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>153958</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -9596,12 +9596,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -9616,12 +9616,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>304852</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -9631,12 +9631,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9659,12 +9659,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -9674,12 +9674,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -9694,12 +9694,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -9709,12 +9709,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -9729,12 +9729,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -9744,12 +9744,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9889,12 +9889,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -9924,12 +9924,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>11082</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>12245</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9939,12 +9939,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -9959,12 +9959,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>20415</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>21592</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9974,12 +9974,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -10002,12 +10002,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -10037,12 +10037,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -10087,12 +10087,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -10115,12 +10115,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -10150,12 +10150,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -10200,12 +10200,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11043,12 +11043,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -11058,12 +11058,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -11078,12 +11078,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -11093,12 +11093,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -11113,12 +11113,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -11171,12 +11171,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -11191,12 +11191,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11206,12 +11206,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -11226,12 +11226,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>204986</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -11304,12 +11304,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>209739</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11319,12 +11319,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -11339,12 +11339,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>415382</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -11354,12 +11354,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11499,12 +11499,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -11514,12 +11514,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -11534,12 +11534,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11549,12 +11549,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -11569,12 +11569,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -11584,12 +11584,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11612,12 +11612,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11627,12 +11627,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -11647,12 +11647,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -11662,12 +11662,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -11682,12 +11682,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -11697,12 +11697,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11725,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>124151</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -11740,12 +11740,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -11760,12 +11760,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>168290</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>293218</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11955,12 +11955,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -11970,12 +11970,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -11990,12 +11990,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -12005,12 +12005,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -12025,12 +12025,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -12426,12 +12426,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12446,12 +12446,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -12461,12 +12461,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12481,12 +12481,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -12496,12 +12496,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12524,12 +12524,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>162210</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -12539,12 +12539,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -12559,12 +12559,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>157995</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -12574,12 +12574,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>321127</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -12609,12 +12609,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12637,12 +12637,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -12652,12 +12652,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -12672,12 +12672,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -12687,12 +12687,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -12722,12 +12722,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -12882,12 +12882,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -12902,12 +12902,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12917,12 +12917,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -12937,12 +12937,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -12952,12 +12952,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52710</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12995,12 +12995,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -13015,12 +13015,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93467</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -13030,12 +13030,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -13050,12 +13050,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>147163</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -13065,12 +13065,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -13108,12 +13108,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -13143,12 +13143,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -13163,12 +13163,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -13178,12 +13178,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13323,12 +13323,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>35777</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -13338,12 +13338,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -13358,12 +13358,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>62576</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -13373,12 +13373,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -13393,12 +13393,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>99121</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -13408,12 +13408,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13436,12 +13436,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -13471,12 +13471,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -13506,12 +13506,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -13521,12 +13521,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13549,12 +13549,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -13584,12 +13584,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -13619,12 +13619,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7414,7 +7414,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en C.Valenciana</t>
+          <t>Clase social de la persona entrevistada en C.Valenciana (tasa de respuesta: 82,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
@@ -962,7 +962,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>149677</t>
+          <t>138813</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>146335</t>
+          <t>135074</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>152703</t>
+          <t>141699</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41276</t>
+          <t>39750</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>36166</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>44795</t>
+          <t>42782</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>58,19%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>190954</t>
+          <t>178563</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>185966</t>
+          <t>173380</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>195928</t>
+          <t>183203</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>83,93%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>84,72%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14344</t>
+          <t>15281</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11318</t>
+          <t>12395</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17686</t>
+          <t>19020</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22213</t>
+          <t>22405</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18694</t>
+          <t>19373</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>25274</t>
+          <t>25989</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>36556</t>
+          <t>37686</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>31582</t>
+          <t>33046</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>41544</t>
+          <t>42869</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>19,82%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>39993</t>
+          <t>49162</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>63938</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,32 +3507,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>110085</t>
+          <t>114942</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>127724</t>
+          <t>133026</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3542,32 +3542,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>153962</t>
+          <t>169148</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>175930</t>
+          <t>192821</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>397597</t>
+          <t>385086</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>387088</t>
+          <t>373011</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>410017</t>
+          <t>397964</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>58,03%</t>
+          <t>54,2%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>353043</t>
+          <t>349193</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>340890</t>
+          <t>336771</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>364738</t>
+          <t>361152</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>750640</t>
+          <t>734280</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>733513</t>
+          <t>716782</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>766526</t>
+          <t>750938</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>241693</t>
+          <t>268953</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>230203</t>
+          <t>256477</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>252162</t>
+          <t>280571</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>274921</t>
+          <t>314220</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>263363</t>
+          <t>301961</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>288216</t>
+          <t>325741</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>516614</t>
+          <t>583173</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>501155</t>
+          <t>567559</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>533270</t>
+          <t>600716</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>40,11%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -5200,12 +5200,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>397594</t>
+          <t>397096</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>465795</t>
+          <t>464796</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5215,12 +5215,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56142</t>
+          <t>55456</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71143</t>
+          <t>71083</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>72,92%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>443428</t>
+          <t>447449</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>552207</t>
+          <t>549209</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5285,12 +5285,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>95,85%</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9629</t>
+          <t>10628</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77830</t>
+          <t>78328</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26421</t>
+          <t>26481</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>41422</t>
+          <t>42108</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>20781</t>
+          <t>23779</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>129560</t>
+          <t>125539</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>21,91%</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>107189</t>
+          <t>102825</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>218202</t>
+          <t>212388</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6926,12 +6926,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>353872</t>
+          <t>341606</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>564580</t>
+          <t>561174</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>523691</t>
+          <t>530831</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>755905</t>
+          <t>742398</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1053384</t>
+          <t>1054977</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1474606</t>
+          <t>1457475</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7039,12 +7039,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>70,85%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>983631</t>
+          <t>988165</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1460542</t>
+          <t>1459567</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7074,12 +7074,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>2072520</t>
+          <t>2085724</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>2731880</t>
+          <t>2752818</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>64,13%</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>493804</t>
+          <t>522553</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>834645</t>
+          <t>838379</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7152,12 +7152,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7172,12 +7172,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>405097</t>
+          <t>421865</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>672683</t>
+          <t>672658</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
@@ -7207,12 +7207,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1050730</t>
+          <t>1042946</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>1480705</t>
+          <t>1473801</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>34,33%</t>
         </is>
       </c>
     </row>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73207</t>
+          <t>72487</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85598</t>
+          <t>85686</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -12083,12 +12083,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,14%</t>
+          <t>75,39%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -12103,12 +12103,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36756</t>
+          <t>36641</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46882</t>
+          <t>47315</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>81,67%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>113070</t>
+          <t>114145</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>129997</t>
+          <t>130535</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>73,63%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>85,01%</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10555</t>
+          <t>10467</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22946</t>
+          <t>23666</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -12196,12 +12196,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -12216,12 +12216,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10522</t>
+          <t>10089</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20648</t>
+          <t>20763</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23560</t>
+          <t>23022</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>40487</t>
+          <t>39412</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>25,67%</t>
         </is>
       </c>
     </row>
@@ -13779,12 +13779,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>27630</t>
+          <t>28063</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>46954</t>
+          <t>47386</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -13794,12 +13794,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -13814,12 +13814,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>53036</t>
+          <t>53222</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>74141</t>
+          <t>76391</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -13829,12 +13829,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -13849,12 +13849,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>85774</t>
+          <t>85076</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>115070</t>
+          <t>115548</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>276434</t>
+          <t>276987</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>318033</t>
+          <t>316987</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -13907,12 +13907,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -13927,12 +13927,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>275183</t>
+          <t>274737</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>316424</t>
+          <t>317591</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -13942,12 +13942,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -13962,12 +13962,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>563101</t>
+          <t>565774</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>622949</t>
+          <t>621717</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -13977,12 +13977,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,36%</t>
         </is>
       </c>
     </row>
@@ -14005,12 +14005,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>326649</t>
+          <t>326978</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>368390</t>
+          <t>365954</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -14040,12 +14040,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>373426</t>
+          <t>373538</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>413465</t>
+          <t>416193</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -14075,12 +14075,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>713471</t>
+          <t>712093</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>769708</t>
+          <t>766660</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -14090,12 +14090,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>53,47%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -957,12 +957,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1756,107 +1756,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>138813</t>
+          <t>216868</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>135074</t>
+          <t>202472</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>141699</t>
+          <t>227926</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>77,71%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39750</t>
+          <t>73988</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36166</t>
+          <t>65495</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42782</t>
+          <t>82463</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>63,95%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>73,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>320</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>178563</t>
+          <t>290857</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>173380</t>
+          <t>275407</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>183203</t>
+          <t>304999</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>80,18%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>81,98%</t>
         </is>
       </c>
     </row>
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15281</t>
+          <t>43688</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12395</t>
+          <t>32630</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19020</t>
+          <t>58084</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22405</t>
+          <t>37498</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19373</t>
+          <t>29023</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>25989</t>
+          <t>45991</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>104</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>37686</t>
+          <t>81186</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>33046</t>
+          <t>67044</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>42869</t>
+          <t>96636</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>25,97%</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2282,12 +2282,12 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -2894,22 +2894,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2964,22 +2964,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3046,12 +3046,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -3350,22 +3350,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3385,22 +3385,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3420,22 +3420,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3467,107 +3467,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169496</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>49162</t>
+          <t>132465</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>63938</t>
+          <t>217165</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>114942</t>
+          <t>509006</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>133026</t>
+          <t>590516</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>169148</t>
+          <t>665289</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>192821</t>
+          <t>774442</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -3580,107 +3580,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>385086</t>
+          <t>1081179</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>373011</t>
+          <t>1028589</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>397964</t>
+          <t>1128551</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>56,02%</t>
+          <t>55,48%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2031</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>349193</t>
+          <t>973479</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>336771</t>
+          <t>931220</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>361152</t>
+          <t>1015595</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4327</t>
+          <t>2373</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>734280</t>
+          <t>2054658</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>716782</t>
+          <t>1993908</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>750938</t>
+          <t>2117440</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>48,83%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>47,39%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>50,32%</t>
         </is>
       </c>
     </row>
@@ -3693,107 +3693,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>780</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>268953</t>
+          <t>783422</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>256477</t>
+          <t>738157</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>280571</t>
+          <t>834911</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>905</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>314220</t>
+          <t>652064</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>301961</t>
+          <t>615597</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>325741</t>
+          <t>690121</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>583173</t>
+          <t>1435486</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>567559</t>
+          <t>1375139</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>600716</t>
+          <t>1490293</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3841,22 +3841,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3876,22 +3876,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>4836</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4391,12 +4391,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -4426,12 +4426,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -4461,12 +4461,12 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -4504,22 +4504,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4539,22 +4539,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4574,22 +4574,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4847,12 +4847,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -4882,12 +4882,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -4960,22 +4960,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4995,22 +4995,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5030,22 +5030,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5190,107 +5190,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>440419</t>
+          <t>80071</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>397096</t>
+          <t>72487</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>464796</t>
+          <t>85686</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,52%</t>
+          <t>75,39%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63418</t>
+          <t>42359</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55456</t>
+          <t>36641</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71083</t>
+          <t>47315</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>65,0%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>279</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>503838</t>
+          <t>122430</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>447449</t>
+          <t>114145</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>549209</t>
+          <t>130535</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>85,01%</t>
         </is>
       </c>
     </row>
@@ -5303,107 +5303,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35005</t>
+          <t>16082</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10628</t>
+          <t>10467</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>78328</t>
+          <t>23666</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34146</t>
+          <t>15045</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26481</t>
+          <t>10089</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>42108</t>
+          <t>20763</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>69150</t>
+          <t>31127</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23779</t>
+          <t>23022</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>125539</t>
+          <t>39412</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>25,67%</t>
         </is>
       </c>
     </row>
@@ -5416,22 +5416,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5451,22 +5451,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5486,22 +5486,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5646,12 +5646,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -5716,12 +5716,12 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -5872,22 +5872,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5907,22 +5907,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5942,22 +5942,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6102,12 +6102,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -6137,12 +6137,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -6172,12 +6172,12 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -6328,22 +6328,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6363,22 +6363,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6398,22 +6398,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6445,12 +6445,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -6480,12 +6480,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -6515,12 +6515,12 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -6784,22 +6784,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6819,22 +6819,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6901,107 +6901,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>102825</t>
+          <t>28063</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>212388</t>
+          <t>47386</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>341606</t>
+          <t>53222</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>561174</t>
+          <t>76391</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>530831</t>
+          <t>85076</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>742398</t>
+          <t>115548</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -7014,107 +7014,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>617</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1188793</t>
+          <t>296922</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1054977</t>
+          <t>276987</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1457475</t>
+          <t>316987</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>70,03%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>617</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1126911</t>
+          <t>295708</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>988165</t>
+          <t>274737</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1459567</t>
+          <t>317591</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>66,01%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>2373</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>2315703</t>
+          <t>592631</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>2085724</t>
+          <t>565774</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>2752818</t>
+          <t>621717</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>53,95%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>64,13%</t>
+          <t>43,36%</t>
         </is>
       </c>
     </row>
@@ -7127,107 +7127,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>725735</t>
+          <t>346672</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>522553</t>
+          <t>326978</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>838379</t>
+          <t>365954</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>593128</t>
+          <t>394484</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>421865</t>
+          <t>373538</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>672658</t>
+          <t>416193</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>1318862</t>
+          <t>741156</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1042946</t>
+          <t>712093</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>1473801</t>
+          <t>766660</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>53,47%</t>
         </is>
       </c>
     </row>
@@ -7240,22 +7240,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7275,22 +7275,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7310,22 +7310,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -11259,12 +11259,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -11294,12 +11294,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -11329,12 +11329,12 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -11372,22 +11372,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -11407,22 +11407,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11442,22 +11442,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -11715,12 +11715,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -11750,12 +11750,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -11785,12 +11785,12 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -11828,22 +11828,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -11863,22 +11863,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11898,22 +11898,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -12058,107 +12058,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>834</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80071</t>
+          <t>138813</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72487</t>
+          <t>135074</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85686</t>
+          <t>141699</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,39%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>236</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42359</t>
+          <t>39750</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36641</t>
+          <t>36166</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47315</t>
+          <t>42782</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>63,83%</t>
+          <t>58,19%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>122430</t>
+          <t>178563</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>114145</t>
+          <t>173380</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>130535</t>
+          <t>183203</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>84,72%</t>
         </is>
       </c>
     </row>
@@ -12171,107 +12171,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16082</t>
+          <t>15281</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10467</t>
+          <t>12395</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23666</t>
+          <t>19020</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15045</t>
+          <t>22405</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10089</t>
+          <t>19373</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20763</t>
+          <t>25989</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>222</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>31127</t>
+          <t>37686</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23022</t>
+          <t>33046</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>39412</t>
+          <t>42869</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>19,82%</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -12319,22 +12319,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -12514,12 +12514,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -12549,12 +12549,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -12584,12 +12584,12 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -12740,22 +12740,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -12775,22 +12775,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12810,22 +12810,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -12970,12 +12970,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -13005,12 +13005,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -13040,12 +13040,12 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -13196,22 +13196,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -13231,22 +13231,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -13266,22 +13266,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -13313,12 +13313,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -13348,12 +13348,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -13383,12 +13383,12 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -13652,22 +13652,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -13687,22 +13687,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -13722,22 +13722,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -13769,107 +13769,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>28063</t>
+          <t>49162</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>47386</t>
+          <t>63938</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>53222</t>
+          <t>114942</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>76391</t>
+          <t>133026</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>85076</t>
+          <t>169148</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>115548</t>
+          <t>192821</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -13882,107 +13882,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>2296</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>296922</t>
+          <t>385086</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>276987</t>
+          <t>373011</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>316987</t>
+          <t>397964</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>54,2%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>46,61%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>2031</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>295708</t>
+          <t>349193</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>274737</t>
+          <t>336771</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>317591</t>
+          <t>361152</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>4327</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>592631</t>
+          <t>734280</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>565774</t>
+          <t>716782</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>621717</t>
+          <t>750938</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -13995,107 +13995,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>1441</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>346672</t>
+          <t>268953</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>326978</t>
+          <t>256477</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>365954</t>
+          <t>280571</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>48,07%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>394484</t>
+          <t>314220</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>373538</t>
+          <t>301961</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>416193</t>
+          <t>325741</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>52,35%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>741156</t>
+          <t>583173</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>712093</t>
+          <t>567559</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>766660</t>
+          <t>600716</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>49,67%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>53,47%</t>
+          <t>40,11%</t>
         </is>
       </c>
     </row>
@@ -14108,22 +14108,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -14143,22 +14143,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -14178,22 +14178,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
